--- a/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
+++ b/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="25200" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="20985" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="표준견적서(한글)" sheetId="6" r:id="rId1"/>
-    <sheet name="표준견적서(중국)" sheetId="5" r:id="rId2"/>
+    <sheet name="표준견적서(중국)" sheetId="5" r:id="rId1"/>
+    <sheet name="표준견적서(한글)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,7 +151,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>오더번호</t>
+          <t>견적</t>
         </r>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>_00 (</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예</t>
+          <t>년월일</t>
         </r>
         <r>
           <rPr>
@@ -178,7 +179,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>, XHS_20160104001_01)</t>
+          <t>_00 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, XHS_20160104_01)</t>
         </r>
       </text>
     </comment>
@@ -317,7 +337,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>견적</t>
+          <t>오더번호</t>
         </r>
         <r>
           <rPr>
@@ -326,7 +346,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t>_00 (</t>
         </r>
         <r>
           <rPr>
@@ -336,7 +356,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>년월일</t>
+          <t>예</t>
         </r>
         <r>
           <rPr>
@@ -345,26 +365,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>_00 (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, XHS_20160104_01)</t>
+          <t>, XHS_20160104001_01)</t>
         </r>
       </text>
     </comment>
@@ -373,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -449,10 +450,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>美元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>膳魔师保温杯 JNI-352 (PRW) 350ml</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -494,6 +491,10 @@
   </si>
   <si>
     <t>报价条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1USD = 1166KRW</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -577,6 +578,10 @@
   </si>
   <si>
     <t>견적유효일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -641,10 +646,6 @@
   </si>
   <si>
     <t>报价编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1USD = 1166KRW</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -776,78 +777,6 @@
       <t>单</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품준비기간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확정일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20영업일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -863,7 +792,7 @@
     <numFmt numFmtId="181" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,13 +1054,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1160,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1432,19 +1354,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1461,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1693,61 +1602,46 @@
     <xf numFmtId="182" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,6 +1739,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>743108</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811250" y="1238250"/>
+          <a:ext cx="1181258" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1898,18 +1836,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>941576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="그림 54"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1922,7 +1860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876301" y="2314575"/>
+          <a:off x="876301" y="2600325"/>
           <a:ext cx="685800" cy="836801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1936,18 +1874,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>197646</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>911480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="그림 55"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1960,7 +1898,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921546" y="3575209"/>
+          <a:off x="921546" y="3660934"/>
           <a:ext cx="650079" cy="793846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1974,18 +1912,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>283370</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>134301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>616071</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="그림 56"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1998,7 +1936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1007270" y="4639626"/>
+          <a:off x="1007270" y="4725351"/>
           <a:ext cx="332701" cy="818199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2012,18 +1950,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>264319</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>162875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>596146</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>971550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="그림 57"/>
+        <xdr:cNvPr id="6" name="그림 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2036,7 +1974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="988219" y="5715950"/>
+          <a:off x="988219" y="5801675"/>
           <a:ext cx="331827" cy="808675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2050,18 +1988,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>959980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="그림 58"/>
+        <xdr:cNvPr id="7" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2074,242 +2012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="6734175"/>
+          <a:off x="1009650" y="6819900"/>
           <a:ext cx="352425" cy="826630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1057276</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>932051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11734801" y="2590800"/>
-          <a:ext cx="685800" cy="836801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>416721</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>901955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11780046" y="3651409"/>
-          <a:ext cx="650079" cy="793846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502445</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>835146</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11865770" y="4715826"/>
-          <a:ext cx="332701" cy="818199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>483394</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>153350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>815221</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11846719" y="5792150"/>
-          <a:ext cx="331827" cy="808675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>950455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11868150" y="6810375"/>
-          <a:ext cx="352425" cy="826630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>743108</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13811250" y="1238250"/>
-          <a:ext cx="1181258" cy="581024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2584,355 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A2:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="26.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A2" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="82.5" customHeight="1" thickTop="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="9">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="82.5" customHeight="1">
-      <c r="A13" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="90">
-        <f>SUM(I12:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-    </row>
-    <row r="14" spans="1:11" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" ht="82.5" customHeight="1" thickTop="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-    </row>
-    <row r="16" spans="1:11" ht="82.5" customHeight="1">
-      <c r="A16" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-    </row>
-    <row r="17" spans="1:11" ht="27" customHeight="1">
-      <c r="A17" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-    </row>
-    <row r="19" spans="1:11" ht="7.5" customHeight="1"/>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1"/>
-    <row r="22" spans="1:11">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:K16"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2955,19 +2314,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -2993,13 +2352,11 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K4" s="35"/>
       <c r="L4" s="4"/>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3013,11 +2370,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="J5" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>50</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K5" s="36"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
@@ -3030,18 +2385,14 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="J6" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>19</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K6" s="36"/>
       <c r="L6" s="4"/>
       <c r="N6" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>19</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
@@ -3053,18 +2404,14 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="J7" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K7" s="36"/>
       <c r="L7" s="4"/>
       <c r="N7" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
@@ -3078,16 +2425,12 @@
       <c r="J8" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="37">
-        <v>42008</v>
-      </c>
+      <c r="K8" s="37"/>
       <c r="L8" s="4"/>
       <c r="N8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="38">
-        <v>42035</v>
-      </c>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
@@ -3101,18 +2444,10 @@
       <c r="J9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="38">
-        <v>42035</v>
-      </c>
+      <c r="K9" s="38"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:17" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3122,133 +2457,552 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="4"/>
+    <row r="11" spans="1:17" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="N11" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="O11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="P11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="Q11" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:17" customFormat="1" ht="82.5" customHeight="1" thickTop="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="75"/>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" ht="27" customHeight="1">
+      <c r="A13" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="81">
+        <f>SUM(I12:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79">
+        <f>SUM(Q12:Q12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="1:17" customFormat="1">
+      <c r="A16" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+    </row>
+    <row r="17" spans="1:17" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+    </row>
+    <row r="19" spans="1:17" customFormat="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" customFormat="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" customFormat="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" customFormat="1">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" customFormat="1">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="26.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="33">
+        <v>42008</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="34">
+        <v>42035</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1">
+      <c r="A11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="N12" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="82.5" customHeight="1" thickTop="1">
-      <c r="A13" s="19" t="s">
+      <c r="K11" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="82.5" customHeight="1" thickTop="1">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16">
+        <v>8809337500663</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21">
+        <v>12</v>
+      </c>
+      <c r="G12" s="22">
+        <v>14.12</v>
+      </c>
+      <c r="H12" s="39">
+        <v>156</v>
+      </c>
+      <c r="I12" s="9">
+        <f>H12*G12</f>
+        <v>2202.7199999999998</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="82.5" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="16">
-        <v>8809337500663</v>
+        <v>8809337500670</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
       <c r="G13" s="22">
         <v>14.12</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="40">
         <v>156</v>
       </c>
       <c r="I13" s="9">
-        <f>H13*G13</f>
+        <f t="shared" ref="I13:I16" si="0">H13*G13</f>
         <v>2202.7199999999998</v>
       </c>
-      <c r="J13" s="41" t="s">
-        <v>10</v>
+      <c r="J13" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="K13" s="69" t="s">
         <v>56</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="75">
-        <v>14.12</v>
-      </c>
-      <c r="P13" s="76">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="75">
-        <f>P13*O13</f>
-        <v>2202.7199999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="82.5" customHeight="1">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="82.5" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="16">
-        <v>8809337500670</v>
+        <v>8809337501967</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>23</v>
@@ -3256,46 +3010,37 @@
       <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="22">
-        <v>14.12</v>
+      <c r="G14" s="9">
+        <v>19.34</v>
       </c>
       <c r="H14" s="40">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I14:I17" si="0">H14*G14</f>
-        <v>2202.7199999999998</v>
+        <f t="shared" si="0"/>
+        <v>3945.36</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K14" s="69" t="s">
         <v>56</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75">
-        <v>14.12</v>
-      </c>
-      <c r="P14" s="77">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="75">
-        <f t="shared" ref="Q14:Q17" si="1">P14*O14</f>
-        <v>2202.7199999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="82.5" customHeight="1">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="82.5" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="16">
-        <v>8809337501967</v>
+        <v>8809337501950</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>24</v>
@@ -3314,225 +3059,165 @@
         <v>3945.36</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K15" s="69" t="s">
         <v>56</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="75">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="82.5" customHeight="1">
+      <c r="A16" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45">
+        <v>8809337501943</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="48">
+        <v>12</v>
+      </c>
+      <c r="G16" s="49">
         <v>19.34</v>
       </c>
-      <c r="P15" s="77">
+      <c r="H16" s="50">
         <v>204</v>
       </c>
-      <c r="Q15" s="75">
-        <f t="shared" si="1"/>
-        <v>3945.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="16">
-        <v>8809337501950</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="8">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9">
-        <v>19.34</v>
-      </c>
-      <c r="H16" s="40">
-        <v>204</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="I16" s="49">
         <f t="shared" si="0"/>
         <v>3945.36</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>27</v>
+      <c r="J16" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="K16" s="69" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="75">
-        <v>19.34</v>
-      </c>
-      <c r="P16" s="77">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="75">
-        <f t="shared" si="1"/>
-        <v>3945.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45">
-        <v>8809337501943</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="48">
-        <v>12</v>
-      </c>
-      <c r="G17" s="49">
-        <v>19.34</v>
-      </c>
-      <c r="H17" s="50">
-        <v>204</v>
-      </c>
-      <c r="I17" s="49">
-        <f t="shared" si="0"/>
-        <v>3945.36</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="80">
-        <v>19.34</v>
-      </c>
-      <c r="P17" s="81">
-        <v>204</v>
-      </c>
-      <c r="Q17" s="80">
-        <f t="shared" si="1"/>
-        <v>3945.36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="27" customHeight="1">
-      <c r="A18" s="87" t="s">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="27" customHeight="1">
+      <c r="A17" s="85" t="s">
         <v>1</v>
       </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="81">
+        <f>SUM(I12:I16)</f>
+        <v>16241.52</v>
+      </c>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A18" s="88"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="90">
-        <f>SUM(I13:I17)</f>
-        <v>16241.52</v>
-      </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="10"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="83">
-        <f>SUM(Q13:Q17)</f>
-        <v>16241.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="1:17" ht="7.5" customHeight="1" thickTop="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="94" t="s">
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="1:12" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="85" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A21" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3544,19 +3229,15 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:17">
+    <row r="27" spans="1:12">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3564,28 +3245,20 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:17">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A21:K21"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J16" r:id="rId1" location="detail"/>
-    <hyperlink ref="J14" r:id="rId2" location="detail"/>
+    <hyperlink ref="J15" r:id="rId1" location="detail"/>
+    <hyperlink ref="J13" r:id="rId2" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>

--- a/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
+++ b/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2670" windowWidth="18410" windowHeight="6880"/>
+    <workbookView xWindow="0" yWindow="2670" windowWidth="18405" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="표준견적서(중국)" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,16 +419,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="[$₩-412]#,##0.00_);[Red]\([$₩-412]#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="[$₩-412]#,##0.00_);[Red]\([$₩-412]#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -937,13 +935,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -994,7 +992,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1010,7 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,9 +1031,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1060,25 +1055,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,26 +1506,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" customWidth="1"/>
-    <col min="9" max="9" width="12.08203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="26.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="3.58203125" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
     <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1560,7 +1556,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="21">
+    <row r="4" spans="1:17" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1574,7 +1570,7 @@
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="4"/>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1714,16 +1710,16 @@
         <v>19</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="41" t="s">
+      <c r="Q11" s="40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1734,20 +1730,21 @@
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="48" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="5"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="48"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1">
       <c r="A13" s="55" t="s">
@@ -1767,15 +1764,15 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="7"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="47">
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="46">
         <f>SUM(Q12:Q12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17.5" thickBot="1">
+    <row r="14" spans="1:17" ht="17.25" thickBot="1">
       <c r="A14" s="58"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>

--- a/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
+++ b/src/main/webapp/WEB-INF/templates/ORDER_DETAIL.xlsx
@@ -429,7 +429,7 @@
     <numFmt numFmtId="181" formatCode="[$₩-412]#,##0.00_);[Red]\([$₩-412]#,##0.00\)"/>
     <numFmt numFmtId="182" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,13 +551,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -919,7 +912,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,28 +937,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,7 +1027,7 @@
     <xf numFmtId="180" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -1067,7 +1045,7 @@
     <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,7 +1474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1504,9 +1482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q24"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1528,19 +1508,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -1565,12 +1545,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="4"/>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1583,10 +1563,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
@@ -1598,15 +1578,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="4"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="26"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
@@ -1617,15 +1597,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="4"/>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="27"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
@@ -1636,15 +1616,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="4"/>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="29"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
@@ -1655,10 +1635,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:17">
@@ -1671,225 +1651,161 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" thickBot="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="82.5" customHeight="1" thickTop="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="47"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="51">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="46">
         <f>SUM(I12:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="7"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="46">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="41">
         <f>SUM(Q12:Q12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="32"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:17" ht="7.5" customHeight="1" thickTop="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
